--- a/fhir/docs/all-profiles.xlsx
+++ b/fhir/docs/all-profiles.xlsx
@@ -30,7 +30,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://nhsdigital.github.io/nhs-notify-standards/fhir/StructureDefinition/nhsnotify-letter-binary</t>
+    <t>https://nhsdigital.github.io/nhs-notify-standards/fhir/docs/StructureDefinition/nhsnotify-letter-binary</t>
   </si>
   <si>
     <t>Version</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-30T10:31:22+00:00</t>
+    <t>2025-09-30T11:01:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -419,7 +419,7 @@
     <t>nhsnotify-letter-communicationrequest</t>
   </si>
   <si>
-    <t>https://nhsdigital.github.io/nhs-notify-standards/fhir/StructureDefinition/nhsnotify-letter-communicationrequest</t>
+    <t>https://nhsdigital.github.io/nhs-notify-standards/fhir/docs/StructureDefinition/nhsnotify-letter-communicationrequest</t>
   </si>
   <si>
     <t>LetterCommunicationRequest</t>
@@ -1086,7 +1086,7 @@
     <t>contentReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://nhsdigital.github.io/nhs-notify-standards/fhir/StructureDefinition/nhsnotify-letter-documentreference)
+    <t xml:space="preserve">Reference(https://nhsdigital.github.io/nhs-notify-standards/fhir/docs/StructureDefinition/nhsnotify-letter-documentreference)
 </t>
   </si>
   <si>
@@ -1214,7 +1214,7 @@
     <t>nhsnotify-letter-documentreference</t>
   </si>
   <si>
-    <t>https://nhsdigital.github.io/nhs-notify-standards/fhir/StructureDefinition/nhsnotify-letter-documentreference</t>
+    <t>https://nhsdigital.github.io/nhs-notify-standards/fhir/docs/StructureDefinition/nhsnotify-letter-documentreference</t>
   </si>
   <si>
     <t>LetterDocumentReference</t>
